--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E66803F-5486-4FE6-82E7-E9DE12B1A667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108FC6E5-5C95-4B1D-96B3-BCC6A9B0B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InventoryRequestTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="InventoryManagementTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="GRNTestData" sheetId="10" r:id="rId2"/>
+    <sheet name="VendorContractTestData" sheetId="8" r:id="rId3"/>
+    <sheet name="PurchaseOrderTestData" sheetId="9" r:id="rId4"/>
+    <sheet name="AccountingEntriesTestData" sheetId="5" r:id="rId5"/>
+    <sheet name="ReportsTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="PurchaseRequisitionConfTestData" sheetId="7" r:id="rId7"/>
+    <sheet name="BillBookingTestData" sheetId="2" r:id="rId8"/>
+    <sheet name="InventoryStockReceivedTestData" sheetId="3" r:id="rId9"/>
+    <sheet name="StockReturnToVendorTestData" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="215">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -42,12 +51,132 @@
     <t>ReviewerID</t>
   </si>
   <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>ItemCodeDescription</t>
+  </si>
+  <si>
+    <t>RequestQty</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>BP Name</t>
+  </si>
+  <si>
+    <t>BP Branch</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
+  </si>
+  <si>
+    <t>AgreementDate</t>
+  </si>
+  <si>
+    <t>AgreementMonth</t>
+  </si>
+  <si>
+    <t>AgreementYear</t>
+  </si>
+  <si>
+    <t>AgreementFullMonth</t>
+  </si>
+  <si>
+    <t>ContractEndDate</t>
+  </si>
+  <si>
+    <t>ContractEndMonth</t>
+  </si>
+  <si>
+    <t>ContractEndYear</t>
+  </si>
+  <si>
+    <t>ContractEndFullMonth</t>
+  </si>
+  <si>
+    <t>ContractSignedOnDate</t>
+  </si>
+  <si>
+    <t>ContractSignedOnMonth</t>
+  </si>
+  <si>
+    <t>ContractSignedOnYear</t>
+  </si>
+  <si>
+    <t>ContractSignedOnFullMonth</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>AutoGenerateInvoice</t>
+  </si>
+  <si>
+    <t>CreditPeriod</t>
+  </si>
+  <si>
+    <t>LatePaymentFee</t>
+  </si>
+  <si>
+    <t>HSNCode</t>
+  </si>
+  <si>
+    <t>ExpenseCode</t>
+  </si>
+  <si>
+    <t>CostCenter</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>RatePerUnit</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>PaymentTermPercent</t>
+  </si>
+  <si>
+    <t>PaymentTermType</t>
+  </si>
+  <si>
+    <t>ModeofPayment</t>
+  </si>
+  <si>
+    <t>AutoPayout</t>
+  </si>
+  <si>
+    <t>EventCode</t>
+  </si>
+  <si>
+    <t>MakerAlertRemark</t>
+  </si>
+  <si>
+    <t>ReviewerAlertRemark</t>
+  </si>
+  <si>
+    <t>CheckerAlertRemark</t>
+  </si>
+  <si>
     <t>KUBS_INV_MGMT_UAT_001_001</t>
   </si>
   <si>
     <t>KUBS_INV_MGMT_UAT_001_001_D1</t>
   </si>
   <si>
+    <t>AZENTMAIN-Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>MARKER01-White Marker</t>
+  </si>
+  <si>
     <t>KUBS_INV_MGMT_UAT_001_002</t>
   </si>
   <si>
@@ -60,6 +189,60 @@
     <t>KUBS_INV_MGMT_UAT_001_003_D1</t>
   </si>
   <si>
+    <t>PEN1-pen</t>
+  </si>
+  <si>
+    <t>Purchases Contract</t>
+  </si>
+  <si>
+    <t>DELUXE 001</t>
+  </si>
+  <si>
+    <t>DADAR BRANCH</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>8471- Laptop</t>
+  </si>
+  <si>
+    <t>8471-Laptop</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>CONTRACTCREATION_EVT</t>
+  </si>
+  <si>
+    <t>submitted By maker</t>
+  </si>
+  <si>
     <t>KUBS_INV_MGMT_UAT_001_004</t>
   </si>
   <si>
@@ -82,13 +265,433 @@
   </si>
   <si>
     <t>KUBS_INV_MGMT_UAT_001_007_D1</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_008</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_008_D1</t>
+  </si>
+  <si>
+    <t>PoNumber</t>
+  </si>
+  <si>
+    <t>BPName</t>
+  </si>
+  <si>
+    <t>BPBranch</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>DeliveryLocation</t>
+  </si>
+  <si>
+    <t>QtyReceived</t>
+  </si>
+  <si>
+    <t>QtyApproved</t>
+  </si>
+  <si>
+    <t>Azentio_Soft-Agency-8-PO-290</t>
+  </si>
+  <si>
+    <t>Bonton Agency</t>
+  </si>
+  <si>
+    <t>Corporate Branch- Panvel</t>
+  </si>
+  <si>
+    <t>INV1120</t>
+  </si>
+  <si>
+    <t>INDIA - Maharastra - Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>EntityBranch</t>
+  </si>
+  <si>
+    <t>BpName</t>
+  </si>
+  <si>
+    <t>ReferenceTypePurchaseReq</t>
+  </si>
+  <si>
+    <t>PoQuantity</t>
+  </si>
+  <si>
+    <t>PoSubTypeForInventory</t>
+  </si>
+  <si>
+    <t>CostCenterService</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>FullMonth</t>
+  </si>
+  <si>
+    <t>ShippedFromLocation</t>
+  </si>
+  <si>
+    <t>ModeOfPayement</t>
+  </si>
+  <si>
+    <t>IndentRefNumber</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>onton Agency</t>
+  </si>
+  <si>
+    <t>Purchase Requisition</t>
+  </si>
+  <si>
+    <t>PO for Inventory</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>INDIA - Punjab</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>gLCode</t>
+  </si>
+  <si>
+    <t>GL Date</t>
+  </si>
+  <si>
+    <t>GL Month</t>
+  </si>
+  <si>
+    <t>GL Year</t>
+  </si>
+  <si>
+    <t>GL FullMonth</t>
+  </si>
+  <si>
+    <t>GL To Date</t>
+  </si>
+  <si>
+    <t>GL To Month</t>
+  </si>
+  <si>
+    <t>GL To Year</t>
+  </si>
+  <si>
+    <t>GL To FullMonth</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>Transaction Ref No</t>
+  </si>
+  <si>
+    <t>AZENTMAIN</t>
+  </si>
+  <si>
+    <t>IFRS-AS-AS1000017</t>
+  </si>
+  <si>
+    <t>INV-95-12023</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_002</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_002_D1</t>
+  </si>
+  <si>
+    <t>ADJ-84-32022</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>ItemDescriptionForInvtItemDetails</t>
+  </si>
+  <si>
+    <t>RequestReferenceNumber</t>
+  </si>
+  <si>
+    <t>IndentReferenceNo</t>
+  </si>
+  <si>
+    <t>IssueReferenceNo</t>
+  </si>
+  <si>
+    <t>AcceptStatus</t>
+  </si>
+  <si>
+    <t>ReturnType</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_001</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_001_D1</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_002</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_002_D1</t>
+  </si>
+  <si>
+    <t>TRN_IR_94_20230130083126</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_003</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_003_D1</t>
+  </si>
+  <si>
+    <t>TRN_PR_65_20230130083200</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_004</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_004_D1</t>
+  </si>
+  <si>
+    <t>TRN_SI_40_20230203074639</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_005</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_005_D1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_006</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_007_006_D1</t>
+  </si>
+  <si>
+    <t>Return to inventory</t>
+  </si>
+  <si>
+    <t>RemarkByMaker</t>
+  </si>
+  <si>
+    <t>InvoiceType</t>
+  </si>
+  <si>
+    <t>InvoiceSubType</t>
+  </si>
+  <si>
+    <t>InvoiceBillingDate</t>
+  </si>
+  <si>
+    <t>InvoiceBillingMonth</t>
+  </si>
+  <si>
+    <t>InvoiceBillingYear</t>
+  </si>
+  <si>
+    <t>InvoiceBillingFullMonth</t>
+  </si>
+  <si>
+    <t>SupplierReferenceNumber</t>
+  </si>
+  <si>
+    <t>FlatDiscountOnInvoice</t>
+  </si>
+  <si>
+    <t>EarlyPaymentDiscountType</t>
+  </si>
+  <si>
+    <t>EarlyPaymentDiscountPercent</t>
+  </si>
+  <si>
+    <t>EarlyPaymentDiscountDays</t>
+  </si>
+  <si>
+    <t>ModeOfPayment</t>
+  </si>
+  <si>
+    <t>InvoiceCurrency</t>
+  </si>
+  <si>
+    <t>InvoicePaymentCurrency</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>PaymentMonth</t>
+  </si>
+  <si>
+    <t>PaymentYear</t>
+  </si>
+  <si>
+    <t>PaymentFullMonth</t>
+  </si>
+  <si>
+    <t>RoundingAdjustment</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>EarlyPaymentDiscountAmountFlat</t>
+  </si>
+  <si>
+    <t>InvoiceQuantity</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>AmountToBeAllocated</t>
+  </si>
+  <si>
+    <t>PONumber</t>
+  </si>
+  <si>
+    <t>ApprovedByReviewer</t>
+  </si>
+  <si>
+    <t>ApprovedByChecker</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_01_D1</t>
+  </si>
+  <si>
+    <t>Invoice Against PO</t>
+  </si>
+  <si>
+    <t>srno_01</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Submit By Maker</t>
+  </si>
+  <si>
+    <t>Approved By Reviewer</t>
+  </si>
+  <si>
+    <t>Approved By Checker</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_007_TC_04_D1</t>
+  </si>
+  <si>
+    <t>grnNumber</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_006_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_001_006_TC_01_D1</t>
+  </si>
+  <si>
+    <t>RequestReferanceNo</t>
+  </si>
+  <si>
+    <t>ReturnQuantity</t>
+  </si>
+  <si>
+    <t>ReturnReason</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_01_D1</t>
+  </si>
+  <si>
+    <t>TRN_IR_92_20230124072428</t>
+  </si>
+  <si>
+    <t>Lost/Misplaced</t>
+  </si>
+  <si>
+    <t>Lost during transit</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_INV_MGMT_UAT_006_001_TC_04_D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +705,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +755,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -197,11 +836,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,6 +953,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,10 +1307,46 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,38 +1359,139 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:42">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -600,14 +1508,29 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:42">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -629,18 +1552,39 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:42">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -658,42 +1602,148 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:42">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="14">
+        <v>20</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="14">
+        <v>20</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>200</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>10000</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:42">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -717,12 +1767,12 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:42">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -746,12 +1796,12 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:42">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -775,6 +1825,2084 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB299568-6174-4E14-862B-5A71F2CFA53F}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="5">
+        <v>83</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1002436</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6277C40-128C-40C8-B8D2-3ED4014AD4BB}">
+  <dimension ref="A1:AN2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="9"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89227859-5463-40B3-81E6-34BE172611EC}">
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="14">
+        <v>20</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2023</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="14">
+        <v>20</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="14">
+        <v>2023</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>20</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="14">
+        <v>2023</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="14">
+        <v>4</v>
+      </c>
+      <c r="X2" s="15">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>10000</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A3E62-9880-4C3A-AEF5-B9C9694F9E43}">
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="9"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B3B253-7E77-437D-AB88-68F67CD818FB}">
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="9"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7098520-6CC9-4449-BE23-1E328C9B2A16}">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2023</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DAF6E-14A7-46EB-8686-6D5B7C264D17}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49666DFE-EE81-497A-9FB6-219BB4C45BC9}">
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="23.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="24">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="24">
+        <v>2022</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="32">
+        <v>100</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>100</v>
+      </c>
+      <c r="R2" s="24">
+        <v>10</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="24">
+        <v>30</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="24">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="32">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="32">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="24">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42271581-646E-4A67-A974-0ACBCA4A6742}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108FC6E5-5C95-4B1D-96B3-BCC6A9B0B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED799240-E829-4AA4-AA26-A311CEAF8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InventoryManagementTestData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="219">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -303,7 +303,7 @@
     <t>Corporate Branch- Panvel</t>
   </si>
   <si>
-    <t>INV1120</t>
+    <t>INV1121</t>
   </si>
   <si>
     <t>INDIA - Maharastra - Azentio Main Branch</t>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>KUBS_INV_MGMT_UAT_006_001_TC_04_D1</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1942</t>
   </si>
 </sst>
 </file>
@@ -1302,48 +1314,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1892,22 +1904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB299568-6174-4E14-862B-5A71F2CFA53F}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2042,52 +2054,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6277C40-128C-40C8-B8D2-3ED4014AD4BB}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -2210,45 +2222,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -2500,45 +2512,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -2712,48 +2724,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -2943,28 +2955,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7098520-6CC9-4449-BE23-1E328C9B2A16}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3317,14 +3329,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3388,45 +3400,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49666DFE-EE81-497A-9FB6-219BB4C45BC9}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="23.28515625" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="33" width="21.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="22" max="25" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="33" width="19.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="33" width="31.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -3552,7 +3564,9 @@
       <c r="B2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="D2" s="25"/>
       <c r="E2" s="24" t="s">
         <v>104</v>
@@ -3571,13 +3585,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="L2" s="24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>186</v>
@@ -3604,13 +3618,13 @@
         <v>188</v>
       </c>
       <c r="V2" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W2" s="24" t="s">
         <v>108</v>
       </c>
       <c r="X2" s="24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Y2" s="24" t="s">
         <v>109</v>
@@ -3812,11 +3826,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_InventoryMgmt_TestData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED799240-E829-4AA4-AA26-A311CEAF8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79DF109D-AE4B-4E7B-9801-DEFE93D442B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InventoryManagementTestData" sheetId="1" r:id="rId1"/>
     <sheet name="GRNTestData" sheetId="10" r:id="rId2"/>
-    <sheet name="VendorContractTestData" sheetId="8" r:id="rId3"/>
-    <sheet name="PurchaseOrderTestData" sheetId="9" r:id="rId4"/>
+    <sheet name="PurchaseOrderTestData" sheetId="9" r:id="rId3"/>
+    <sheet name="VendorContractTestData" sheetId="8" r:id="rId4"/>
     <sheet name="AccountingEntriesTestData" sheetId="5" r:id="rId5"/>
     <sheet name="ReportsTestData" sheetId="6" r:id="rId6"/>
     <sheet name="PurchaseRequisitionConfTestData" sheetId="7" r:id="rId7"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="265">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -303,78 +303,78 @@
     <t>Corporate Branch- Panvel</t>
   </si>
   <si>
-    <t>INV1121</t>
+    <t>INV1123</t>
   </si>
   <si>
     <t>INDIA - Maharastra - Azentio Main Branch</t>
   </si>
   <si>
+    <t>EntityBranch</t>
+  </si>
+  <si>
+    <t>BpName</t>
+  </si>
+  <si>
+    <t>ReferenceTypePurchaseReq</t>
+  </si>
+  <si>
+    <t>PoQuantity</t>
+  </si>
+  <si>
+    <t>PoSubTypeForInventory</t>
+  </si>
+  <si>
+    <t>CostCenterService</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>FullMonth</t>
+  </si>
+  <si>
+    <t>ShippedFromLocation</t>
+  </si>
+  <si>
+    <t>ModeOfPayement</t>
+  </si>
+  <si>
+    <t>IndentRefNumber</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>onton Agency</t>
+  </si>
+  <si>
+    <t>Purchase Requisition</t>
+  </si>
+  <si>
+    <t>PO for Inventory</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>INDIA - Punjab</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>approved</t>
   </si>
   <si>
-    <t>EntityBranch</t>
-  </si>
-  <si>
-    <t>BpName</t>
-  </si>
-  <si>
-    <t>ReferenceTypePurchaseReq</t>
-  </si>
-  <si>
-    <t>PoQuantity</t>
-  </si>
-  <si>
-    <t>PoSubTypeForInventory</t>
-  </si>
-  <si>
-    <t>CostCenterService</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>FullMonth</t>
-  </si>
-  <si>
-    <t>ShippedFromLocation</t>
-  </si>
-  <si>
-    <t>ModeOfPayement</t>
-  </si>
-  <si>
-    <t>IndentRefNumber</t>
-  </si>
-  <si>
-    <t>Azentio Main Branch</t>
-  </si>
-  <si>
-    <t>onton Agency</t>
-  </si>
-  <si>
-    <t>Purchase Requisition</t>
-  </si>
-  <si>
-    <t>PO for Inventory</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>INDIA - Punjab</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>gLCode</t>
   </si>
   <si>
@@ -414,6 +414,12 @@
     <t>IFRS-AS-AS1000017</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
     <t>INV-95-12023</t>
   </si>
   <si>
@@ -453,10 +459,10 @@
     <t>KUBS_INV_MGMT_UAT_007_001_D1</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>February</t>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
   <si>
     <t>KUBS_INV_MGMT_UAT_007_002</t>
@@ -684,16 +690,148 @@
     <t>KUBS_INV_MGMT_UAT_006_001_TC_04_D1</t>
   </si>
   <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>1941</t>
-  </si>
-  <si>
-    <t>1942</t>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1002436</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>TRN_PR_66_20230204062551</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>Azentio_Soft-Agency-8-PO-52</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>GRN-Agency-15-110-632023</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>GRN-Agency-8-111-732023</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Azentio_Soft-Agency-8-PO-53</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>GRN-Agency-8-112-732023</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>GRN-Agency-8-113-732023</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>Azentio_Soft-Agency-8-PO-54</t>
+  </si>
+  <si>
+    <t>1646</t>
+  </si>
+  <si>
+    <t>GRN-Agency-8-117-732023</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>182</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1454,8 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="11.42578125" collapsed="true"/>
@@ -1493,8 +1631,12 @@
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
@@ -1912,8 +2054,8 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="26.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
@@ -1936,16 +2078,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>23</v>
@@ -1957,28 +2099,28 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="5">
-        <v>83</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1002436</v>
+        <v>207</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>57</v>
@@ -1990,10 +2132,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="25"/>
@@ -2009,10 +2151,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="25"/>
@@ -2028,10 +2170,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="25"/>
@@ -2054,17 +2196,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6277C40-128C-40C8-B8D2-3ED4014AD4BB}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
@@ -2173,10 +2315,14 @@
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>86</v>
@@ -2213,6 +2359,224 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A3E62-9880-4C3A-AEF5-B9C9694F9E43}">
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.18359375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="9"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89227859-5463-40B3-81E6-34BE172611EC}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -2224,8 +2588,8 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
@@ -2389,8 +2753,12 @@
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E2" s="13" t="s">
         <v>51</v>
       </c>
@@ -2491,223 +2859,11 @@
         <v>67</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A3E62-9880-4C3A-AEF5-B9C9694F9E43}">
-  <dimension ref="A1:AM2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="9"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="6">
-        <v>25</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="6">
-        <v>2023</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="6">
-        <v>3</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B3B253-7E77-437D-AB88-68F67CD818FB}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2863,29 +3019,29 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I2" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K2" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M2" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -2897,10 +3053,10 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2914,28 +3070,28 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I3" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K3" s="6">
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M3" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -2955,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7098520-6CC9-4449-BE23-1E328C9B2A16}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2993,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>113</v>
@@ -3011,19 +3167,19 @@
         <v>116</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>121</v>
@@ -3044,10 +3200,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3056,16 +3212,16 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="6">
         <v>2023</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3089,29 +3245,29 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I3" s="6">
         <v>2023</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -3134,30 +3290,30 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" s="6">
         <v>2023</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -3179,31 +3335,31 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5" s="6">
         <v>2023</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -3224,32 +3380,32 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6" s="6">
         <v>2023</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3269,36 +3425,36 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I7" s="6">
         <v>2023</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -3356,10 +3512,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>40</v>
@@ -3400,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49666DFE-EE81-497A-9FB6-219BB4C45BC9}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
@@ -3409,7 +3565,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
@@ -3455,13 +3611,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>79</v>
@@ -3470,85 +3626,85 @@
         <v>29</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U1" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC1" s="23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD1" s="23" t="s">
         <v>32</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG1" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH1" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AI1" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AJ1" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -3559,20 +3715,22 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="25"/>
       <c r="E2" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24" t="s">
@@ -3594,13 +3752,13 @@
         <v>56</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O2" s="32">
         <v>100</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q2" s="24">
         <v>100</v>
@@ -3612,22 +3770,22 @@
         <v>65</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="U2" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="V2" s="24">
         <v>20</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X2" s="24">
         <v>2023</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z2" s="32">
         <v>100</v>
@@ -3652,13 +3810,13 @@
       </c>
       <c r="AG2" s="24"/>
       <c r="AH2" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
@@ -3669,10 +3827,10 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="25"/>
@@ -3717,10 +3875,10 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="25"/>
@@ -3765,10 +3923,10 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="25"/>
@@ -3828,9 +3986,9 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.37109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -3847,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -3880,14 +4038,20 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24"/>
+        <v>202</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
